--- a/output/cpra_postproc/Static_Offset.xlsx
+++ b/output/cpra_postproc/Static_Offset.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbilsk3\Documents\PROJECTS\CPRA\2019_Season\Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbilsk3\Desktop\working\Barry_CPRA_Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="20">
   <si>
     <t>USACE</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>03780</t>
+  </si>
+  <si>
+    <t>291929089562600</t>
   </si>
 </sst>
 </file>
@@ -403,12 +406,15 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -419,7 +425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -430,7 +436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -441,7 +447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -452,7 +458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -463,7 +469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -474,7 +480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -485,7 +491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -496,7 +502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -507,7 +513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -518,7 +524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -529,18 +535,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -551,7 +557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -562,7 +568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -573,7 +579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -584,7 +590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -595,7 +601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -606,7 +612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -617,7 +623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -628,7 +634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -639,7 +645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -650,7 +656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -661,7 +667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -672,7 +678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -683,7 +689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -694,7 +700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -705,7 +711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -716,7 +722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>0</v>
       </c>

--- a/output/cpra_postproc/Static_Offset.xlsx
+++ b/output/cpra_postproc/Static_Offset.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbilsk3\Desktop\working\Barry_CPRA_Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbilsk3\Desktop\cpra_hydrograph_plotter\cpra_hydrograph_plotter\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -83,7 +83,7 @@
     <t>03780</t>
   </si>
   <si>
-    <t>291929089562600</t>
+    <t>07380260</t>
   </si>
 </sst>
 </file>
@@ -406,15 +406,15 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A11" sqref="A11:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -425,7 +425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -436,7 +436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -447,7 +447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -458,7 +458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -469,7 +469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -491,7 +491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -502,7 +502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -513,7 +513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -524,29 +524,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="C12" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -557,7 +557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -568,7 +568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -590,7 +590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -656,7 +656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>0</v>
       </c>

--- a/output/cpra_postproc/Static_Offset.xlsx
+++ b/output/cpra_postproc/Static_Offset.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbilsk3\Desktop\cpra_hydrograph_plotter\cpra_hydrograph_plotter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbilsk3\Documents\PROJECTS\CPRA\2020_Season\AL032020\NAM\2020060412\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="22">
   <si>
     <t>USACE</t>
   </si>
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t>07380260</t>
+  </si>
+  <si>
+    <t>073802332</t>
+  </si>
+  <si>
+    <t>82740</t>
   </si>
 </sst>
 </file>
@@ -403,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:B12"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -422,18 +428,18 @@
         <v>5</v>
       </c>
       <c r="C1" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>76065</v>
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -455,7 +461,7 @@
         <v>76265</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -484,8 +490,8 @@
       <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="2">
-        <v>82742</v>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -510,7 +516,7 @@
         <v>76010</v>
       </c>
       <c r="C9" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -532,7 +538,7 @@
         <v>19</v>
       </c>
       <c r="C11" s="1">
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -554,7 +560,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="1">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -576,7 +582,7 @@
         <v>6</v>
       </c>
       <c r="C15" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -587,7 +593,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="1">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -598,7 +604,7 @@
         <v>8</v>
       </c>
       <c r="C17" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -620,7 +626,7 @@
         <v>76025</v>
       </c>
       <c r="C19" s="1">
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -631,7 +637,7 @@
         <v>10</v>
       </c>
       <c r="C20" s="1">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -642,7 +648,7 @@
         <v>76593</v>
       </c>
       <c r="C21" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -653,18 +659,18 @@
         <v>11</v>
       </c>
       <c r="C22" s="1">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>12</v>
+      <c r="B23" s="2">
+        <v>76305</v>
       </c>
       <c r="C23" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -672,10 +678,10 @@
         <v>0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24" s="1">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -683,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C25" s="1">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -694,10 +700,10 @@
         <v>0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C26" s="1">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -705,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C27" s="1">
         <v>0</v>
@@ -716,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C28" s="1">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -727,10 +733,21 @@
         <v>0</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="1">
-        <v>0</v>
+      <c r="C30" s="1">
+        <v>-1.5</v>
       </c>
     </row>
   </sheetData>

--- a/output/cpra_postproc/Static_Offset.xlsx
+++ b/output/cpra_postproc/Static_Offset.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbilsk3\Documents\PROJECTS\CPRA\2020_Season\AL032020\NAM\2020060412\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbilsk3\Desktop\asgs\output\cpra_postproc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="24">
   <si>
     <t>USACE</t>
   </si>
@@ -89,7 +89,13 @@
     <t>073802332</t>
   </si>
   <si>
-    <t>82740</t>
+    <t>01480</t>
+  </si>
+  <si>
+    <t>073814675</t>
+  </si>
+  <si>
+    <t>82742</t>
   </si>
 </sst>
 </file>
@@ -409,18 +415,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -428,10 +434,10 @@
         <v>5</v>
       </c>
       <c r="C1" s="1">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -439,10 +445,10 @@
         <v>20</v>
       </c>
       <c r="C2" s="1">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -453,7 +459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -461,10 +467,10 @@
         <v>76265</v>
       </c>
       <c r="C4" s="1">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -475,7 +481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -486,18 +492,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -508,7 +514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -516,10 +522,10 @@
         <v>76010</v>
       </c>
       <c r="C9" s="1">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -530,7 +536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -538,10 +544,10 @@
         <v>19</v>
       </c>
       <c r="C11" s="1">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -552,7 +558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -560,10 +566,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -574,7 +580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -582,10 +588,10 @@
         <v>6</v>
       </c>
       <c r="C15" s="1">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -593,10 +599,10 @@
         <v>7</v>
       </c>
       <c r="C16" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -604,10 +610,10 @@
         <v>8</v>
       </c>
       <c r="C17" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -618,7 +624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -626,10 +632,10 @@
         <v>76025</v>
       </c>
       <c r="C19" s="1">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -637,10 +643,10 @@
         <v>10</v>
       </c>
       <c r="C20" s="1">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -648,10 +654,10 @@
         <v>76593</v>
       </c>
       <c r="C21" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -659,10 +665,10 @@
         <v>11</v>
       </c>
       <c r="C22" s="1">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -670,10 +676,10 @@
         <v>76305</v>
       </c>
       <c r="C23" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -681,10 +687,10 @@
         <v>12</v>
       </c>
       <c r="C24" s="1">
-        <v>-1.25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -692,10 +698,10 @@
         <v>13</v>
       </c>
       <c r="C25" s="1">
-        <v>-1.25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -703,10 +709,10 @@
         <v>14</v>
       </c>
       <c r="C26" s="1">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -717,7 +723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -725,10 +731,10 @@
         <v>16</v>
       </c>
       <c r="C28" s="1">
-        <v>-0.25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -739,7 +745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -747,7 +753,40 @@
         <v>18</v>
       </c>
       <c r="C30" s="1">
-        <v>-1.5</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="2">
+        <v>76560</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/cpra_postproc/Static_Offset.xlsx
+++ b/output/cpra_postproc/Static_Offset.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbilsk3\Desktop\asgs\output\cpra_postproc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbilsk3\Documents\PROJECTS\CPRA\2020_Season\SlideDeckUpdates_07012020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="23">
   <si>
     <t>USACE</t>
   </si>
@@ -32,70 +32,67 @@
     <t>USGS</t>
   </si>
   <si>
+    <t>85670</t>
+  </si>
+  <si>
+    <t>85575</t>
+  </si>
+  <si>
+    <t>85625</t>
+  </si>
+  <si>
+    <t>85700</t>
+  </si>
+  <si>
+    <t>82875</t>
+  </si>
+  <si>
+    <t>76230</t>
+  </si>
+  <si>
+    <t>073802516</t>
+  </si>
+  <si>
+    <t>08017118</t>
+  </si>
+  <si>
+    <t>01400</t>
+  </si>
+  <si>
+    <t>01390</t>
+  </si>
+  <si>
+    <t>01300</t>
+  </si>
+  <si>
+    <t>01280</t>
+  </si>
+  <si>
+    <t>01275</t>
+  </si>
+  <si>
+    <t>01260</t>
+  </si>
+  <si>
+    <t>03780</t>
+  </si>
+  <si>
+    <t>07380260</t>
+  </si>
+  <si>
+    <t>073802332</t>
+  </si>
+  <si>
+    <t>01480</t>
+  </si>
+  <si>
+    <t>073814675</t>
+  </si>
+  <si>
+    <t>82742</t>
+  </si>
+  <si>
     <t>01440</t>
-  </si>
-  <si>
-    <t>85670</t>
-  </si>
-  <si>
-    <t>85575</t>
-  </si>
-  <si>
-    <t>85625</t>
-  </si>
-  <si>
-    <t>85700</t>
-  </si>
-  <si>
-    <t>82875</t>
-  </si>
-  <si>
-    <t>76220</t>
-  </si>
-  <si>
-    <t>76230</t>
-  </si>
-  <si>
-    <t>073802516</t>
-  </si>
-  <si>
-    <t>08017118</t>
-  </si>
-  <si>
-    <t>01400</t>
-  </si>
-  <si>
-    <t>01390</t>
-  </si>
-  <si>
-    <t>01300</t>
-  </si>
-  <si>
-    <t>01280</t>
-  </si>
-  <si>
-    <t>01275</t>
-  </si>
-  <si>
-    <t>01260</t>
-  </si>
-  <si>
-    <t>03780</t>
-  </si>
-  <si>
-    <t>07380260</t>
-  </si>
-  <si>
-    <t>073802332</t>
-  </si>
-  <si>
-    <t>01480</t>
-  </si>
-  <si>
-    <t>073814675</t>
-  </si>
-  <si>
-    <t>82742</t>
   </si>
 </sst>
 </file>
@@ -415,11 +412,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C33"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -431,7 +426,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1">
         <v>0</v>
@@ -442,7 +437,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -485,8 +480,8 @@
       <c r="A6" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="2">
-        <v>82770</v>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -496,8 +491,8 @@
       <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>23</v>
+      <c r="B7" s="2">
+        <v>85760</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -508,7 +503,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="2">
-        <v>85760</v>
+        <v>76010</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -519,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="2">
-        <v>76010</v>
+        <v>82715</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -527,10 +522,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="2">
-        <v>82715</v>
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -538,10 +533,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -574,7 +569,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -606,8 +601,8 @@
       <c r="A17" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>8</v>
+      <c r="B17" s="2">
+        <v>76025</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
@@ -615,10 +610,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
@@ -626,10 +621,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="2">
-        <v>76025</v>
+        <v>1</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C19" s="1">
         <v>0</v>
@@ -637,10 +632,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="B20" s="2">
+        <v>76305</v>
       </c>
       <c r="C20" s="1">
         <v>0</v>
@@ -650,8 +645,8 @@
       <c r="A21" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="2">
-        <v>76593</v>
+      <c r="B21" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C21" s="1">
         <v>0</v>
@@ -659,7 +654,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>11</v>
@@ -672,8 +667,8 @@
       <c r="A23" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="2">
-        <v>76305</v>
+      <c r="B23" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C23" s="1">
         <v>0</v>
@@ -684,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C24" s="1">
         <v>0</v>
@@ -695,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C25" s="1">
         <v>0</v>
@@ -706,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C26" s="1">
         <v>0</v>
@@ -717,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C27" s="1">
         <v>0</v>
@@ -728,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C28" s="1">
         <v>0</v>
@@ -738,8 +733,8 @@
       <c r="A29" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>17</v>
+      <c r="B29" s="2">
+        <v>76560</v>
       </c>
       <c r="C29" s="1">
         <v>0</v>
@@ -747,45 +742,12 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C30" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="2">
-        <v>76560</v>
-      </c>
-      <c r="C32" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="1">
         <v>0</v>
       </c>
     </row>
